--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="001_addScoreConfig" sheetId="2" r:id="rId2"/>
-    <sheet name="002_editScoreConfig" sheetId="3" r:id="rId3"/>
-    <sheet name="003_ScoreConfigSetStop" sheetId="4" r:id="rId4"/>
-    <sheet name="004_ScoreConfigSetStratup" sheetId="5" r:id="rId5"/>
-    <sheet name="005_delScoreConfig" sheetId="6" r:id="rId6"/>
+    <sheet name="003_ScoreConfigSetStop" sheetId="4" r:id="rId2"/>
+    <sheet name="001_addScoreConfig" sheetId="2" r:id="rId3"/>
+    <sheet name="002_editScoreConfig" sheetId="3" r:id="rId4"/>
+    <sheet name="005_delScoreConfig" sheetId="6" r:id="rId5"/>
+    <sheet name="004_ScoreConfigSetStratup" sheetId="5" r:id="rId6"/>
     <sheet name="006_exportScoreWaterNum" sheetId="8" r:id="rId7"/>
     <sheet name="007_exportScoreReport" sheetId="9" r:id="rId8"/>
     <sheet name="008_updateScoreReport" sheetId="10" r:id="rId9"/>
+    <sheet name="009_checkScoreWaterNum" sheetId="11" r:id="rId10"/>
+    <sheet name="010_checkScoreReport" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>动作</t>
   </si>
@@ -297,21 +299,78 @@
     <t>截图</t>
   </si>
   <si>
+    <t>1积分配置管理界面</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>点击请选择停车场</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.请选择停车场</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>勾选checkbox选择停车场列表</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.选择停车场列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2搜索界面</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.禁用</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.确认-提示</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3操作成功</t>
+  </si>
+  <si>
     <t>1积分抵扣配置界面</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>添加优惠</t>
   </si>
   <si>
     <t>ScoreConfigPage.添加</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>输入支付优惠名称</t>
   </si>
   <si>
@@ -321,48 +380,27 @@
     <t>UI积分配置</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>选择停车场列表</t>
   </si>
   <si>
     <t>ScoreConfigPage.适用停车场</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>输入选择停车场</t>
   </si>
   <si>
     <t>ScoreConfigPage.选择停车场</t>
   </si>
   <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
     <t>ScoreConfigPage.确认-二级提示</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>点击有效日期</t>
   </si>
   <si>
     <t>ScoreConfigPage.有效日期</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>点击后一天</t>
   </si>
   <si>
@@ -423,24 +461,12 @@
     <t>点击确定</t>
   </si>
   <si>
-    <t>ScoreConfigPage.确认-提示</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>ScoreConfigPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>3操作成功</t>
-  </si>
-  <si>
     <t>1支付优惠管理界面</t>
   </si>
   <si>
@@ -471,28 +497,10 @@
     <t>4操作成功</t>
   </si>
   <si>
-    <t>1积分配置管理界面</t>
-  </si>
-  <si>
-    <t>点击请选择停车场</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.请选择停车场</t>
-  </si>
-  <si>
-    <t>勾选checkbox选择停车场列表</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.选择停车场列表</t>
-  </si>
-  <si>
-    <t>2搜索界面</t>
-  </si>
-  <si>
-    <t>点击启用</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.禁用</t>
+    <t>2勾选积分配置管理界面</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.删除</t>
   </si>
   <si>
     <t>2积分配置管理界面</t>
@@ -501,12 +509,6 @@
     <t>ScoreConfigPage.启用</t>
   </si>
   <si>
-    <t>2勾选积分配置管理界面</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.删除</t>
-  </si>
-  <si>
     <t>ScoreConfigPage.积分抵扣流水</t>
   </si>
   <si>
@@ -547,6 +549,33 @@
   </si>
   <si>
     <t>重新生成成功</t>
+  </si>
+  <si>
+    <t>1积分抵扣流水界面</t>
+  </si>
+  <si>
+    <t>点击支付时间</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.搜索时间</t>
+  </si>
+  <si>
+    <t>点击最近三个月</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.最近三个月</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.记录列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称</t>
   </si>
 </sst>
 </file>
@@ -554,10 +583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -576,7 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +613,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -591,7 +628,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,6 +655,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -611,8 +670,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -627,31 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,13 +724,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -690,22 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +763,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +841,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,37 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +901,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,85 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,15 +968,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,6 +1011,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1023,15 +1061,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1048,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,133 +1089,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1905,13 +1934,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C2:C4 C6:C7 C11:C12">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 C10">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C2:C4 C6:C7 C11:C12">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 C10">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="35" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C2:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 B11 C11 C12">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1997,7 +2626,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
@@ -2005,13 +2634,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:7">
@@ -2019,16 +2648,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
@@ -2038,115 +2667,115 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>80</v>
@@ -2156,19 +2785,19 @@
     </row>
     <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2176,19 +2805,19 @@
     </row>
     <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2196,7 +2825,7 @@
     </row>
     <row r="17" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>90</v>
@@ -2206,26 +2835,26 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>69</v>
@@ -2234,15 +2863,15 @@
         <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>90</v>
@@ -2251,7 +2880,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -2371,7 +3000,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2379,16 +3008,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2403,7 +3032,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2411,36 +3040,36 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -2450,27 +3079,27 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -2479,15 +3108,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>90</v>
@@ -2496,7 +3125,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2522,22 +3151,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2558,7 +3186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" ht="35" customHeight="1" spans="1:5">
+    <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -2571,9 +3199,9 @@
       <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:5">
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -2586,9 +3214,9 @@
       <c r="D3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:5">
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -2601,9 +3229,9 @@
       <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="35" customHeight="1" spans="1:5">
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -2615,116 +3243,101 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" ht="35" customHeight="1" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>150</v>
+      <c r="B6" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="35" customHeight="1" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>152</v>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" ht="35" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2732,10 +3345,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4 C12:C13">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 B11 C11 C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2744,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K12"/>
@@ -2844,7 +3457,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:11">
@@ -2859,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="6"/>
@@ -2878,10 +3491,10 @@
         <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
@@ -2896,42 +3509,42 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>69</v>
@@ -2940,15 +3553,15 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>90</v>
@@ -2958,7 +3571,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2978,219 +3591,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4 C12:C13">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
-      <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3232,7 +3639,7 @@
       <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -3247,7 +3654,7 @@
       <c r="D3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -3262,7 +3669,7 @@
       <c r="D4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -3314,19 +3721,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3335,7 +3742,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>166</v>
@@ -3343,7 +3750,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3379,7 +3786,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3503,19 +3910,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3524,7 +3931,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>166</v>
@@ -3532,7 +3939,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3542,7 +3949,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3975,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3692,19 +4099,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3713,7 +4120,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>174</v>
@@ -3721,7 +4128,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3731,7 +4138,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="185">
   <si>
     <t>动作</t>
   </si>
@@ -326,6 +326,21 @@
     <t>7</t>
   </si>
   <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>勾选表格</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.积分配置列表</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>2搜索界面</t>
   </si>
   <si>
@@ -377,7 +392,7 @@
     <t>ScoreConfigPage.配置名称</t>
   </si>
   <si>
-    <t>UI积分配置</t>
+    <t>UI积分抵扣配置</t>
   </si>
   <si>
     <t>选择停车场列表</t>
@@ -470,12 +485,6 @@
     <t>1支付优惠管理界面</t>
   </si>
   <si>
-    <t>勾选表格</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.积分配置列表</t>
-  </si>
-  <si>
     <t>2支付优惠管理查询界面</t>
   </si>
   <si>
@@ -488,7 +497,7 @@
     <t>修改优惠名称</t>
   </si>
   <si>
-    <t>UI积分配置修改后</t>
+    <t>UI积分抵扣配置修改后</t>
   </si>
   <si>
     <t>3修改支付优惠界面</t>
@@ -564,12 +573,6 @@
   </si>
   <si>
     <t>ScoreConfigPage.最近三个月</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.搜索按钮</t>
   </si>
   <si>
     <t>ScoreConfigPage.记录列表</t>
@@ -583,10 +586,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -613,22 +616,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +645,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,54 +696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,17 +714,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,6 +725,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -763,37 +766,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,42 +808,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,7 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,13 +850,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,49 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +976,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -990,30 +1023,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1024,7 +1033,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,28 +1064,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,10 +1080,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +1092,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1937,10 +1940,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2010,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2026,7 +2029,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2034,13 +2037,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2049,13 +2052,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2063,47 +2066,81 @@
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>180</v>
+      <c r="B8" s="5" t="str">
+        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <v>点击请选择停车场</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <v>勾选checkbox选择停车场列表</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2148,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C2:C4 C6:C7 C11:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C11 C2:C4 C6:C7 C8:C9 C13:C14">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 C12">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2126,10 +2163,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2199,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2223,13 +2260,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2238,13 +2275,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2252,47 +2289,81 @@
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>180</v>
+      <c r="B8" s="5" t="str">
+        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <v>点击请选择停车场</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <v>勾选checkbox选择停车场列表</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2371,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C2:C4 C6:C7 C11:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C11 C2:C4 C6:C7 C8:C9 C13:C14">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 C12">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2315,10 +2386,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2440,81 +2511,111 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:5">
+    <row r="8" ht="35" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="1:5">
+      <c r="E9" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>111</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2623,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C11 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 B11 C11 C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12 B13 C13 C14">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2539,8 +2640,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2626,7 +2727,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
@@ -2634,13 +2735,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:7">
@@ -2648,16 +2749,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
@@ -2667,29 +2768,29 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>98</v>
@@ -2699,83 +2800,83 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>80</v>
@@ -2785,19 +2886,19 @@
     </row>
     <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2805,19 +2906,19 @@
     </row>
     <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2825,7 +2926,7 @@
     </row>
     <row r="17" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>90</v>
@@ -2835,26 +2936,26 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>69</v>
@@ -2863,15 +2964,15 @@
         <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>90</v>
@@ -2880,7 +2981,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2910,10 +3011,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3000,76 +3101,76 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>148</v>
+      <c r="B6" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>151</v>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>152</v>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3079,44 +3180,44 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
+      <c r="D11" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" ht="26" customHeight="1" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>90</v>
@@ -3124,25 +3225,72 @@
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C40:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C10 C11 B12 C12 C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C12 C13 C14 B15 C15 C16">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C28">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C39">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3154,10 +3302,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3250,94 +3398,141 @@
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>148</v>
+      <c r="B6" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>102</v>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>158</v>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>111</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3345,10 +3540,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C11 C2:C4 C15:C16">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12 B13 C13 C14">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3360,10 +3555,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3501,77 +3696,109 @@
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>111</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +3806,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C9 C2:C4 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C11 C2:C4 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10 B11 C11 C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12 B13 C13 C14">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3667,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3683,7 +3910,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3691,13 +3918,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3713,7 +3940,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3721,19 +3948,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3742,15 +3969,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3760,7 +3987,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3872,7 +4099,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3880,13 +4107,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3902,7 +4129,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3910,19 +4137,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3931,15 +4158,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3949,7 +4176,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3972,10 +4199,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4045,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4061,7 +4288,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4069,13 +4296,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4084,61 +4311,76 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>111</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4146,10 +4388,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C11:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C2:C4 C12:C13">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 B9 C9 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 B10 C10 C11">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="193">
   <si>
     <t>动作</t>
   </si>
@@ -332,6 +332,9 @@
     <t>ScoreConfigPage.搜索按钮</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>勾选表格</t>
   </si>
   <si>
@@ -341,10 +344,13 @@
     <t>86</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>2搜索界面</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>点击启用</t>
@@ -353,7 +359,7 @@
     <t>ScoreConfigPage.禁用</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>点击确认</t>
@@ -362,7 +368,7 @@
     <t>ScoreConfigPage.确认-提示</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>ScoreConfigPage.操作成功-提示</t>
@@ -371,7 +377,7 @@
     <t>操作成功</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>3操作成功</t>
@@ -422,7 +428,25 @@
     <t>ScoreConfigPage.后一天</t>
   </si>
   <si>
-    <t>12</t>
+    <t>输入开始日期</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.开始日期</t>
+  </si>
+  <si>
+    <t>20220101</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击有效日期-确定</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.有效日期-确定</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>输入抵扣规则-积分</t>
@@ -431,7 +455,7 @@
     <t>ScoreConfigPage.抵扣规则-积分</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>输入抵扣规则-元</t>
@@ -440,7 +464,7 @@
     <t>ScoreConfigPage.抵扣规则-元</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>输入单次最高抵扣扣分</t>
@@ -452,7 +476,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>输入备注</t>
@@ -464,22 +488,22 @@
     <t>艾科智泊</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>2积分配置新增界面</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>点击确定</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>1支付优惠管理界面</t>
@@ -586,10 +610,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -622,9 +646,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,45 +699,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,30 +709,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,25 +724,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -766,19 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +838,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,19 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,19 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,67 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +999,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -990,17 +1053,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,50 +1096,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1080,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,133 +1116,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2013,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2029,7 +2053,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2037,13 +2061,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2052,13 +2076,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2080,7 +2104,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
@@ -2098,7 +2122,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>100</v>
@@ -2113,7 +2137,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>90</v>
@@ -2123,12 +2147,12 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
@@ -2137,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2252,7 +2276,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2260,13 +2284,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2275,13 +2299,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
@@ -2321,7 +2345,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>100</v>
@@ -2336,7 +2360,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>90</v>
@@ -2346,12 +2370,12 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
@@ -2360,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2388,8 +2412,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2527,23 +2551,25 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -2553,42 +2579,42 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -2597,15 +2623,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -2615,7 +2641,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2638,22 +2664,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="41" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -2727,7 +2752,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
@@ -2735,244 +2760,236 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:7">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:6">
+      <c r="A15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" ht="27" customHeight="1" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:5">
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>90</v>
@@ -2980,25 +2997,71 @@
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C17 C2:C4 C15:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C16 C17 C20 C2:C4 C14:C15 C18:C19">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B19 C19 C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 B22 C22 C23">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C25">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3014,7 +3077,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3101,7 +3164,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3153,24 +3216,24 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3180,44 +3243,44 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>90</v>
@@ -3227,27 +3290,27 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>69</v>
@@ -3256,15 +3319,15 @@
         <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>90</v>
@@ -3273,7 +3336,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3368,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3443,24 +3506,24 @@
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3470,42 +3533,42 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -3514,15 +3577,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -3532,7 +3595,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3709,24 +3772,24 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3736,42 +3799,42 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -3780,15 +3843,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -3798,7 +3861,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3823,8 +3886,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3894,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3910,7 +3973,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3918,13 +3981,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3940,7 +4003,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3948,19 +4011,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -3969,15 +4032,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3987,7 +4050,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4099,7 +4162,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4107,13 +4170,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4129,7 +4192,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4137,19 +4200,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -4158,15 +4221,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -4176,7 +4239,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4201,8 +4264,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4272,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4288,7 +4351,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4311,13 +4374,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4333,27 +4396,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -4362,15 +4425,15 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>90</v>
@@ -4380,7 +4443,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="195">
   <si>
     <t>动作</t>
   </si>
@@ -326,187 +326,193 @@
     <t>7</t>
   </si>
   <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>选择下拉列表启用</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.状态</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>点击搜索按钮</t>
   </si>
   <si>
     <t>ScoreConfigPage.搜索按钮</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2搜索界面</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.禁用</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.确认-提示</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3操作成功</t>
+  </si>
+  <si>
+    <t>1积分抵扣配置界面</t>
+  </si>
+  <si>
+    <t>添加优惠</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.添加</t>
+  </si>
+  <si>
+    <t>输入支付优惠名称</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.配置名称</t>
+  </si>
+  <si>
+    <t>UI积分抵扣配置</t>
+  </si>
+  <si>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.适用停车场</t>
+  </si>
+  <si>
+    <t>输入选择停车场</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.选择停车场</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>点击有效日期</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.有效日期</t>
+  </si>
+  <si>
+    <t>点击后一天</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.后一天</t>
+  </si>
+  <si>
+    <t>输入开始日期</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.开始日期</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>输入结束日期</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.结束日期</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>点击有效日期-确定</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.有效日期-确定</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>输入抵扣规则-积分</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.抵扣规则-积分</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>输入抵扣规则-元</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.抵扣规则-元</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>输入单次最高抵扣扣分</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.单次最高抵扣扣分</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2积分配置新增界面</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1支付优惠管理界面</t>
   </si>
   <si>
     <t>勾选表格</t>
   </si>
   <si>
     <t>ScoreConfigPage.积分配置列表</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2搜索界面</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>点击启用</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.禁用</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.确认-提示</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3操作成功</t>
-  </si>
-  <si>
-    <t>1积分抵扣配置界面</t>
-  </si>
-  <si>
-    <t>添加优惠</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.添加</t>
-  </si>
-  <si>
-    <t>输入支付优惠名称</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.配置名称</t>
-  </si>
-  <si>
-    <t>UI积分抵扣配置</t>
-  </si>
-  <si>
-    <t>选择停车场列表</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.适用停车场</t>
-  </si>
-  <si>
-    <t>输入选择停车场</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.选择停车场</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.确认-二级提示</t>
-  </si>
-  <si>
-    <t>点击有效日期</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.有效日期</t>
-  </si>
-  <si>
-    <t>点击后一天</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.后一天</t>
-  </si>
-  <si>
-    <t>输入开始日期</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.开始日期</t>
-  </si>
-  <si>
-    <t>20220101</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>点击有效日期-确定</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.有效日期-确定</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>输入抵扣规则-积分</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.抵扣规则-积分</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>输入抵扣规则-元</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.抵扣规则-元</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>输入单次最高抵扣扣分</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.单次最高抵扣扣分</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>输入备注</t>
-  </si>
-  <si>
-    <t>ScoreConfigPage.备注</t>
-  </si>
-  <si>
-    <t>艾科智泊</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2积分配置新增界面</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1支付优惠管理界面</t>
   </si>
   <si>
     <t>2支付优惠管理查询界面</t>
@@ -2037,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2053,7 +2059,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2061,13 +2067,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2076,13 +2082,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
@@ -2122,16 +2128,16 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2147,12 +2153,12 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
@@ -2161,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2276,7 +2282,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2284,13 +2290,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2299,13 +2305,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
@@ -2345,16 +2351,16 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2370,12 +2376,12 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
@@ -2384,10 +2390,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2416,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2422,7 +2428,7 @@
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2540,108 +2546,125 @@
         <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" ht="35" customHeight="1" spans="1:5">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2672,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C11 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C12 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12 B13 C13 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2666,8 +2689,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2752,7 +2775,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
@@ -2760,13 +2783,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:6">
@@ -2774,16 +2797,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -2792,28 +2815,28 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>98</v>
@@ -2822,16 +2845,16 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2840,133 +2863,132 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="17" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -3013,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
@@ -3027,10 +3049,10 @@
         <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
@@ -3044,7 +3066,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3074,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C16 C17 C20 C2:C4 C14:C15 C18:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 B22 C22 C23">
@@ -3074,10 +3096,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3204,46 +3226,48 @@
         <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3251,109 +3275,124 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>167</v>
+      <c r="E17" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C40:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C12 C13 C14 B15 C15 C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 C14 C15 B16 C16 C17">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C29">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3365,10 +3404,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="B6:D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3486,7 +3525,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
@@ -3494,46 +3533,48 @@
         <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3541,61 +3582,76 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>113</v>
+      <c r="D12" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3603,10 +3659,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C11 C2:C4 C15:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C12 C2:C4 C16:C17">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12 B13 C13 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3620,8 +3676,8 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3760,36 +3816,36 @@
         <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -3799,42 +3855,42 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -3843,15 +3899,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -3861,7 +3917,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3886,8 +3942,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3957,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3973,7 +4029,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3981,13 +4037,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4003,7 +4059,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4011,19 +4067,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -4032,15 +4088,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -4050,7 +4106,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4146,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4162,7 +4218,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4170,13 +4226,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4192,7 +4248,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4200,19 +4256,19 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -4221,15 +4277,15 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>90</v>
@@ -4239,7 +4295,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4351,7 +4407,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4359,13 +4415,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4374,13 +4430,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4396,27 +4452,27 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -4425,10 +4481,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4443,7 +4499,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="922" activeTab="5"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="922" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="196">
   <si>
     <t>动作</t>
   </si>
@@ -281,7 +281,7 @@
     <t>点击积分抵扣对接</t>
   </si>
   <si>
-    <t>ScoreConfigPage.积分抵扣对接</t>
+    <t>ScoreConfigPage.车场积分对接</t>
   </si>
   <si>
     <t>3</t>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>ScoreConfigPage.删除</t>
+  </si>
+  <si>
+    <t>ScoreConfigPage.积分配置</t>
   </si>
   <si>
     <t>2积分配置管理界面</t>
@@ -1973,7 +1976,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2043,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2059,7 +2062,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2067,13 +2070,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2082,13 +2085,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2167,10 +2170,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2199,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2266,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2282,7 +2285,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2290,13 +2293,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2305,13 +2308,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2390,10 +2393,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2418,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2689,8 +2692,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3099,7 +3102,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="B8:E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3407,7 +3410,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3676,8 +3679,8 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3733,7 +3736,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f>C3&amp;MID(D3,FIND(".",D3)+1,10)</f>
-        <v>点击积分抵扣对接</v>
+        <v>点击车场积分对接</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3749,13 +3752,13 @@
       </c>
       <c r="B4" s="5" t="str">
         <f>C4&amp;MID(D4,FIND(".",D4)+1,10)</f>
-        <v>点击积分抵扣配置</v>
+        <v>点击积分配置</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3855,7 +3858,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
@@ -3869,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3943,7 +3946,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4013,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4029,7 +4032,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4037,13 +4040,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4091,7 +4094,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4106,7 +4109,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4132,7 +4135,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4202,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4218,7 +4221,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4226,13 +4229,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4280,7 +4283,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4321,7 +4324,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4391,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4430,13 +4433,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4452,7 +4455,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4484,7 +4487,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">

--- a/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/scoreConfig.xlsx
@@ -763,13 +763,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -779,6 +772,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,18 +794,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,31 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,19 +889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +925,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,10 +1113,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,16 +1125,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,112 +1146,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2421,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2692,7 +2692,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3101,7 +3101,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
